--- a/data/Загрузка справочник ШМТ.xlsx
+++ b/data/Загрузка справочник ШМТ.xlsx
@@ -2584,7 +2584,7 @@
     <t>Пакет вакуум. 160х250 мм 70 мкм, прозр., ПЭТ/ПЭ, 200 шт/упак (ООО Экспомаркет Техн.)</t>
   </si>
   <si>
-    <t>ЭКСПО МАРКЕТ ТЕХНОЛОГИИ ООО</t>
+    <t>ЭКСПЕРТ УПАКОВКА ООО</t>
   </si>
   <si>
     <t>Пакеты вакуумные 65 (70) мкм</t>
